--- a/data-raw/HMS Landings Data - Jennifer Cudney - NOAA Federal 2024.xlsx
+++ b/data-raw/HMS Landings Data - Jennifer Cudney - NOAA Federal 2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon.beltz\Downloads\Upload Data (File responses)-20231213T162420Z-001\Upload Data (File responses)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon.beltz\Documents\GitHub\ecodata\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="30">
   <si>
     <t>YEAR</t>
   </si>
   <si>
     <t>HMS_Groups</t>
-  </si>
-  <si>
-    <t>HMS Landing</t>
   </si>
   <si>
     <t>metric ton</t>
@@ -607,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -626,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -646,16 +643,16 @@
         <v>2015</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6">
         <v>887.92266624330955</v>
@@ -666,16 +663,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7">
         <v>6181006.5043364111</v>
@@ -686,16 +683,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6">
         <v>54.511476004717416</v>
@@ -706,16 +703,16 @@
         <v>2015</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7">
         <v>749169.5</v>
@@ -726,16 +723,16 @@
         <v>2015</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
         <v>77.356177991472364</v>
@@ -746,16 +743,16 @@
         <v>2015</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7">
         <v>78829.040190372616</v>
@@ -766,16 +763,16 @@
         <v>2015</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6">
         <v>98.271754513290389</v>
@@ -786,16 +783,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7">
         <v>228144.59069519117</v>
@@ -806,16 +803,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="6">
         <v>127.15230880885429</v>
@@ -826,16 +823,16 @@
         <v>2015</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="7">
         <v>144394.59201818705</v>
@@ -846,16 +843,16 @@
         <v>2015</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
         <v>593.08509480177793</v>
@@ -866,16 +863,16 @@
         <v>2015</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7">
         <v>594476.20640827902</v>
@@ -886,16 +883,16 @@
         <v>2015</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="6">
         <v>415.34458495872286</v>
@@ -906,16 +903,16 @@
         <v>2015</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="7">
         <v>2906364.5139264613</v>
@@ -926,16 +923,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>173.34100970697631</v>
@@ -946,16 +943,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="7">
         <v>946169.2989385426</v>
@@ -966,16 +963,16 @@
         <v>2015</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6">
         <v>688.98122108318967</v>
@@ -986,16 +983,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="7">
         <v>7779472.3699999982</v>
@@ -1006,16 +1003,16 @@
         <v>2015</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6">
         <v>24.038437811847963</v>
@@ -1026,16 +1023,16 @@
         <v>2015</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="7">
         <v>60260.870132923126</v>
@@ -1046,16 +1043,16 @@
         <v>2015</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="6">
         <v>452.97258913181525</v>
@@ -1066,16 +1063,16 @@
         <v>2015</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="7">
         <v>2374911.9008469582</v>
@@ -1086,16 +1083,16 @@
         <v>2016</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6">
         <v>777.57098793431908</v>
@@ -1106,16 +1103,16 @@
         <v>2016</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="7">
         <v>5013127</v>
@@ -1126,16 +1123,16 @@
         <v>2016</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6">
         <v>76.115848680032656</v>
@@ -1146,16 +1143,16 @@
         <v>2016</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="7">
         <v>1159084</v>
@@ -1166,16 +1163,16 @@
         <v>2016</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="6">
         <v>127.06976322235326</v>
@@ -1186,16 +1183,16 @@
         <v>2016</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="7">
         <v>117321</v>
@@ -1206,16 +1203,16 @@
         <v>2016</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="6">
         <v>108.39880250385558</v>
@@ -1226,16 +1223,16 @@
         <v>2016</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="7">
         <v>263374</v>
@@ -1246,16 +1243,16 @@
         <v>2016</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="6">
         <v>109.6153497233058</v>
@@ -1266,16 +1263,16 @@
         <v>2016</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="7">
         <v>148264</v>
@@ -1286,16 +1283,16 @@
         <v>2016</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="6">
         <v>454.19758686383022</v>
@@ -1306,16 +1303,16 @@
         <v>2016</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="7">
         <v>522720</v>
@@ -1326,16 +1323,16 @@
         <v>2016</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="6">
         <v>320.68493150684935</v>
@@ -1346,16 +1343,16 @@
         <v>2016</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="7">
         <v>2118366</v>
@@ -1366,16 +1363,16 @@
         <v>2016</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="6">
         <v>79.298739000272164</v>
@@ -1386,16 +1383,16 @@
         <v>2016</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="7">
         <v>563331</v>
@@ -1406,16 +1403,16 @@
         <v>2016</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="6">
         <v>763.17744715594665</v>
@@ -1426,16 +1423,16 @@
         <v>2016</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="7">
         <v>12053917</v>
@@ -1446,16 +1443,16 @@
         <v>2016</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="6">
         <v>23.872811394357253</v>
@@ -1466,16 +1463,16 @@
         <v>2016</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" s="7">
         <v>70450</v>
@@ -1486,16 +1483,16 @@
         <v>2016</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="6">
         <v>362.57824548670965</v>
@@ -1506,16 +1503,16 @@
         <v>2016</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="7">
         <v>2274062</v>
@@ -1526,16 +1523,16 @@
         <v>2017</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6">
         <v>1182.4384196679675</v>
@@ -1546,16 +1543,16 @@
         <v>2017</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" s="7">
         <v>8406186.8713363148</v>
@@ -1566,16 +1563,16 @@
         <v>2017</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="6">
         <v>144.73260455411412</v>
@@ -1586,16 +1583,16 @@
         <v>2017</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" s="7">
         <v>1630197.7699999996</v>
@@ -1606,16 +1603,16 @@
         <v>2017</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" s="6">
         <v>89.215857751973147</v>
@@ -1626,16 +1623,16 @@
         <v>2017</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" s="7">
         <v>94317.129802688956</v>
@@ -1646,16 +1643,16 @@
         <v>2017</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F52" s="6">
         <v>122.28558015059433</v>
@@ -1666,16 +1663,16 @@
         <v>2017</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="7">
         <v>284721.20907529892</v>
@@ -1686,16 +1683,16 @@
         <v>2017</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="6">
         <v>115.29120928966707</v>
@@ -1706,16 +1703,16 @@
         <v>2017</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" s="7">
         <v>173680.74992129207</v>
@@ -1726,16 +1723,16 @@
         <v>2017</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="6">
         <v>537.83724938764408</v>
@@ -1746,16 +1743,16 @@
         <v>2017</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" s="7">
         <v>579514.57454093173</v>
@@ -1766,16 +1763,16 @@
         <v>2017</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F58" s="6">
         <v>331.27486618887781</v>
@@ -1786,16 +1783,16 @@
         <v>2017</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" s="7">
         <v>2483905.3144624531</v>
@@ -1806,16 +1803,16 @@
         <v>2017</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="6">
         <v>100.65804681121293</v>
@@ -1826,16 +1823,16 @@
         <v>2017</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" s="7">
         <v>700639.762242264</v>
@@ -1846,16 +1843,16 @@
         <v>2017</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="6">
         <v>669.66575682663529</v>
@@ -1866,16 +1863,16 @@
         <v>2017</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="7">
         <v>7692372.5299999993</v>
@@ -1886,16 +1883,16 @@
         <v>2017</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" s="6">
         <v>19.393994375396897</v>
@@ -1906,16 +1903,16 @@
         <v>2017</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" s="7">
         <v>60626.629844903946</v>
@@ -1926,16 +1923,16 @@
         <v>2017</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="6">
         <v>1.6787625873174272</v>
@@ -1946,16 +1943,16 @@
         <v>2017</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" s="7">
         <v>2162.3499768972397</v>
@@ -1966,16 +1963,16 @@
         <v>2017</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="6">
         <v>181.94412591853398</v>
@@ -1986,16 +1983,16 @@
         <v>2017</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" s="7">
         <v>1348020.5707421303</v>
@@ -2006,16 +2003,16 @@
         <v>2018</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F70" s="6">
         <v>718.46514560464482</v>
@@ -2026,16 +2023,16 @@
         <v>2018</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" s="7">
         <v>6290138.7200000007</v>
@@ -2046,16 +2043,16 @@
         <v>2018</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="6">
         <v>109.11231062324232</v>
@@ -2066,16 +2063,16 @@
         <v>2018</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" s="7">
         <v>1377515.5999999999</v>
@@ -2086,16 +2083,16 @@
         <v>2018</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="6">
         <v>88.829674317336483</v>
@@ -2106,16 +2103,16 @@
         <v>2018</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" s="7">
         <v>93722.68</v>
@@ -2126,16 +2123,16 @@
         <v>2018</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" s="6">
         <v>66.01678308990293</v>
@@ -2146,16 +2143,16 @@
         <v>2018</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" s="7">
         <v>125233.28</v>
@@ -2166,16 +2163,16 @@
         <v>2018</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F78" s="6">
         <v>134.41294565907646</v>
@@ -2186,16 +2183,16 @@
         <v>2018</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" s="7">
         <v>194597.14</v>
@@ -2206,16 +2203,16 @@
         <v>2018</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F80" s="6">
         <v>588.00352898484994</v>
@@ -2226,16 +2223,16 @@
         <v>2018</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" s="7">
         <v>678717.1100000001</v>
@@ -2246,16 +2243,16 @@
         <v>2018</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F82" s="6">
         <v>246.18543953551665</v>
@@ -2266,16 +2263,16 @@
         <v>2018</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" s="7">
         <v>1741737.5999999999</v>
@@ -2286,16 +2283,16 @@
         <v>2018</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" s="6">
         <v>35.227973328494969</v>
@@ -2306,16 +2303,16 @@
         <v>2018</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" s="7">
         <v>265492.03000000003</v>
@@ -2326,16 +2323,16 @@
         <v>2018</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F86" s="6">
         <v>751.84931506849318</v>
@@ -2346,16 +2343,16 @@
         <v>2018</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" s="7">
         <v>9307575.0600000005</v>
@@ -2366,16 +2363,16 @@
         <v>2018</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F88" s="6">
         <v>5.2973509933774832</v>
@@ -2386,16 +2383,16 @@
         <v>2018</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" s="7">
         <v>12757.31</v>
@@ -2406,16 +2403,16 @@
         <v>2018</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F90" s="6">
         <v>107.92133720402795</v>
@@ -2426,16 +2423,16 @@
         <v>2018</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" s="7">
         <v>822831.77</v>
@@ -2446,16 +2443,16 @@
         <v>2019</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F92" s="6">
         <v>937.16879706069142</v>
@@ -2466,16 +2463,16 @@
         <v>2019</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" s="7">
         <v>7399157.4108999996</v>
@@ -2486,16 +2483,16 @@
         <v>2019</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F94" s="6">
         <v>157.94339676131727</v>
@@ -2506,16 +2503,16 @@
         <v>2019</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" s="7">
         <v>1625484.5199999998</v>
@@ -2526,16 +2523,16 @@
         <v>2019</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F96" s="6">
         <v>107.19889322326047</v>
@@ -2546,16 +2543,16 @@
         <v>2019</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" s="7">
         <v>111900.56000000003</v>
@@ -2566,16 +2563,16 @@
         <v>2019</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F98" s="6">
         <v>57.64309263358431</v>
@@ -2586,16 +2583,16 @@
         <v>2019</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" s="7">
         <v>119398.04699999999</v>
@@ -2606,16 +2603,16 @@
         <v>2019</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F100" s="6">
         <v>158.62133720402818</v>
@@ -2626,16 +2623,16 @@
         <v>2019</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F101" s="7">
         <v>232039.47999999992</v>
@@ -2646,16 +2643,16 @@
         <v>2019</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" s="6">
         <v>518.36975378753414</v>
@@ -2666,16 +2663,16 @@
         <v>2019</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F103" s="7">
         <v>647624.18770629354</v>
@@ -2686,16 +2683,16 @@
         <v>2019</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F104" s="6">
         <v>314.97403157035262</v>
@@ -2706,16 +2703,16 @@
         <v>2019</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F105" s="7">
         <v>2258948.8999999994</v>
@@ -2726,16 +2723,16 @@
         <v>2019</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F106" s="6">
         <v>205.31726843871903</v>
@@ -2746,16 +2743,16 @@
         <v>2019</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" s="7">
         <v>1483253.8999999997</v>
@@ -2766,16 +2763,16 @@
         <v>2019</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" s="6">
         <v>820.36475834618534</v>
@@ -2786,16 +2783,16 @@
         <v>2019</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109" s="7">
         <v>8098499.8100000024</v>
@@ -2806,16 +2803,16 @@
         <v>2019</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F110" s="6">
         <v>5.6874172185430467</v>
@@ -2826,16 +2823,16 @@
         <v>2019</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F111" s="7">
         <v>13596.9</v>
@@ -2846,16 +2843,16 @@
         <v>2019</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F112" s="6">
         <v>199.48394720130642</v>
@@ -2866,16 +2863,16 @@
         <v>2019</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F113" s="7">
         <v>1291711.2169999999</v>
@@ -2886,16 +2883,16 @@
         <v>2020</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F114" s="5">
         <v>897.5708858749889</v>
@@ -2906,16 +2903,16 @@
         <v>2020</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F115" s="5">
         <v>200.95879071033295</v>
@@ -2926,16 +2923,16 @@
         <v>2020</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F116" s="5">
         <v>109.79056971786255</v>
@@ -2946,16 +2943,16 @@
         <v>2020</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F117" s="5">
         <v>59.190885965708077</v>
@@ -2966,16 +2963,16 @@
         <v>2020</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F118" s="5">
         <v>101.97594121382575</v>
@@ -2986,16 +2983,16 @@
         <v>2020</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F119" s="5">
         <v>384.24926109044708</v>
@@ -3006,16 +3003,16 @@
         <v>2020</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F120" s="6">
         <v>487.54330109770461</v>
@@ -3026,16 +3023,16 @@
         <v>2020</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F121" s="6">
         <v>81.810373763948121</v>
@@ -3046,16 +3043,16 @@
         <v>2020</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F122" s="6">
         <v>768.96188197405422</v>
@@ -3066,16 +3063,16 @@
         <v>2020</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F123" s="6">
         <v>32.779311439716963</v>
@@ -3086,16 +3083,16 @@
         <v>2020</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F124" s="7">
         <v>6497369.1700000009</v>
@@ -3106,16 +3103,16 @@
         <v>2020</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F125" s="7">
         <v>1712665.34</v>
@@ -3126,16 +3123,16 @@
         <v>2020</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F126" s="7">
         <v>141361.29999999996</v>
@@ -3146,16 +3143,16 @@
         <v>2020</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F127" s="7">
         <v>108038.27000000002</v>
@@ -3166,16 +3163,16 @@
         <v>2020</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F128" s="7">
         <v>183564.46000000011</v>
@@ -3186,16 +3183,16 @@
         <v>2020</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F129" s="7">
         <v>504094.38</v>
@@ -3206,16 +3203,16 @@
         <v>2020</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F130" s="7">
         <v>3809994.6600000006</v>
@@ -3226,16 +3223,16 @@
         <v>2020</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F131" s="7">
         <v>509645.07999999996</v>
@@ -3246,16 +3243,16 @@
         <v>2020</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F132" s="7">
         <v>6629280.5199999921</v>
@@ -3266,16 +3263,16 @@
         <v>2020</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F133" s="7">
         <v>247698.82999999996</v>
@@ -3286,16 +3283,16 @@
         <v>2021</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F134" s="4">
         <v>1003.871698494058</v>
@@ -3306,16 +3303,16 @@
         <v>2021</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F135" s="4">
         <v>205.60870452689829</v>
@@ -3326,16 +3323,16 @@
         <v>2021</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F136" s="4">
         <v>91.611310441803511</v>
@@ -3346,16 +3343,16 @@
         <v>2021</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F137" s="4">
         <v>49.280513471831625</v>
@@ -3366,16 +3363,16 @@
         <v>2021</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F138" s="4">
         <v>98.88297877165914</v>
@@ -3386,16 +3383,16 @@
         <v>2021</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F139" s="4">
         <v>525.07285668148415</v>
@@ -3406,16 +3403,16 @@
         <v>2021</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F140" s="4">
         <v>283.14823913181556</v>
@@ -3426,16 +3423,16 @@
         <v>2021</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F141" s="4">
         <v>137.30114873446431</v>
@@ -3446,16 +3443,16 @@
         <v>2021</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F142" s="4">
         <v>765.36653474553214</v>
@@ -3466,16 +3463,16 @@
         <v>2021</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F143" s="4">
         <v>1.4182527442619979</v>
@@ -3486,19 +3483,19 @@
         <v>2021</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3506,16 +3503,16 @@
         <v>2021</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F145" s="4">
         <v>16.097143245940309</v>
@@ -3526,16 +3523,16 @@
         <v>2021</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F146" s="4">
         <v>10638217.20135</v>
@@ -3546,16 +3543,16 @@
         <v>2021</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F147" s="4">
         <v>2275558.64</v>
@@ -3566,16 +3563,16 @@
         <v>2021</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F148" s="4">
         <v>136911.20000000007</v>
@@ -3586,16 +3583,16 @@
         <v>2021</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F149" s="4">
         <v>96553.790000000037</v>
@@ -3606,16 +3603,16 @@
         <v>2021</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" s="4">
         <v>173092.39</v>
@@ -3626,16 +3623,16 @@
         <v>2021</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F151" s="4">
         <v>745207.7816000001</v>
@@ -3646,16 +3643,16 @@
         <v>2021</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F152" s="4">
         <v>2570276.0090000001</v>
@@ -3666,16 +3663,16 @@
         <v>2021</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F153" s="4">
         <v>1432198.2475000001</v>
@@ -3686,16 +3683,16 @@
         <v>2021</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F154" s="4">
         <v>9345883.6400000006</v>
@@ -3706,16 +3703,16 @@
         <v>2021</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F155" s="4">
         <v>4325.82</v>
@@ -3726,19 +3723,19 @@
         <v>2021</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3746,16 +3743,16 @@
         <v>2021</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F157" s="4">
         <v>147957.07</v>
@@ -3766,16 +3763,16 @@
         <v>2022</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F158" s="3">
         <v>92.38</v>
@@ -3786,16 +3783,16 @@
         <v>2022</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F159" s="3">
         <v>806.52</v>
@@ -3806,19 +3803,19 @@
         <v>2022</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3826,16 +3823,16 @@
         <v>2022</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F161" s="3">
         <v>1.06</v>
@@ -3846,16 +3843,16 @@
         <v>2022</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F162" s="3">
         <v>72.44</v>
@@ -3866,16 +3863,16 @@
         <v>2022</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F163" s="3">
         <v>890062.94</v>
@@ -3886,16 +3883,16 @@
         <v>2022</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F164" s="3">
         <v>9172732.3300000001</v>
@@ -3906,19 +3903,19 @@
         <v>2022</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3926,16 +3923,16 @@
         <v>2022</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F166" s="3">
         <v>1062.9100000000001</v>
@@ -3946,16 +3943,16 @@
         <v>2022</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F167" s="3">
         <v>537356.26</v>
@@ -3966,16 +3963,16 @@
         <v>2022</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F168" s="3">
         <v>999.87</v>
@@ -3986,16 +3983,16 @@
         <v>2022</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F169" s="3">
         <v>262.07</v>
@@ -4006,16 +4003,16 @@
         <v>2022</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F170" s="3">
         <v>118.69</v>
@@ -4026,16 +4023,16 @@
         <v>2022</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F171" s="3">
         <v>35.409999999999997</v>
@@ -4046,16 +4043,16 @@
         <v>2022</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F172" s="3">
         <v>48.03</v>
@@ -4066,16 +4063,16 @@
         <v>2022</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F173" s="3">
         <v>436.71</v>
@@ -4086,16 +4083,16 @@
         <v>2022</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F174" s="3">
         <v>347.65</v>
@@ -4106,16 +4103,16 @@
         <v>2022</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F175" s="3">
         <v>10152967</v>
@@ -4126,16 +4123,16 @@
         <v>2022</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F176" s="3">
         <v>3100591.6</v>
@@ -4146,16 +4143,16 @@
         <v>2022</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F177" s="3">
         <v>164832.32000000001</v>
@@ -4166,16 +4163,16 @@
         <v>2022</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F178" s="3">
         <v>78544.160000000003</v>
@@ -4186,16 +4183,16 @@
         <v>2022</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F179" s="3">
         <v>98004.14</v>
@@ -4206,16 +4203,16 @@
         <v>2022</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F180" s="3">
         <v>664870.62</v>
@@ -4226,16 +4223,16 @@
         <v>2022</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F181" s="3">
         <v>3072331.57</v>
@@ -5084,15 +5081,15 @@
   <sheetData>
     <row r="50" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="N50" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1">
         <v>2015</v>
@@ -5119,7 +5116,7 @@
         <v>2022</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O51" s="1">
         <v>2015</v>
@@ -5148,7 +5145,7 @@
     </row>
     <row r="52" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="6">
         <v>887.92266624330955</v>
@@ -5175,7 +5172,7 @@
         <v>999.87</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O52" s="6">
         <v>173.34100970697631</v>
@@ -5204,7 +5201,7 @@
     </row>
     <row r="53" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="6">
         <v>54.511476004717416</v>
@@ -5231,7 +5228,7 @@
         <v>262.07</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O53" s="6">
         <v>688.98122108318967</v>
@@ -5260,7 +5257,7 @@
     </row>
     <row r="54" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="6">
         <v>415.34458495872286</v>
@@ -5287,7 +5284,7 @@
         <v>347.65</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O54" s="6">
         <v>452.97258913181525</v>
@@ -5316,7 +5313,7 @@
     </row>
     <row r="55" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="6">
         <v>77.356177991472364</v>
@@ -5343,7 +5340,7 @@
         <v>118.69</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O55" s="6">
         <v>0</v>
@@ -5372,7 +5369,7 @@
     </row>
     <row r="56" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="6">
         <v>127.15230880885429</v>
@@ -5399,7 +5396,7 @@
         <v>48.03</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O56" s="6">
         <v>0</v>
@@ -5428,7 +5425,7 @@
     </row>
     <row r="57" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="6">
         <v>98.271754513290389</v>
@@ -5455,7 +5452,7 @@
         <v>35.409999999999997</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O57" s="11">
         <v>24.038437811847963</v>
@@ -5477,12 +5474,12 @@
         <v>1.4182527442619979</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="6">
         <v>593.08509480177793</v>
@@ -5509,7 +5506,7 @@
         <v>436.71</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
@@ -5520,7 +5517,7 @@
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V58" s="11">
         <v>1.060691281865191</v>
@@ -5546,17 +5543,17 @@
     </row>
     <row r="61" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="10"/>
       <c r="N61" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1">
         <v>2015</v>
@@ -5583,7 +5580,7 @@
         <v>2022</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O62" s="1">
         <v>2015</v>
@@ -5612,7 +5609,7 @@
     </row>
     <row r="63" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="11">
         <v>6181.0065043364111</v>
@@ -5639,7 +5636,7 @@
         <v>10152.969999999999</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O63" s="12">
         <v>946.16929893854262</v>
@@ -5668,7 +5665,7 @@
     </row>
     <row r="64" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="11">
         <v>749.16949999999997</v>
@@ -5695,7 +5692,7 @@
         <v>3100.59</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O64" s="12">
         <v>7779.4723699999986</v>
@@ -5724,7 +5721,7 @@
     </row>
     <row r="65" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" s="11">
         <v>2906.3645139264613</v>
@@ -5751,7 +5748,7 @@
         <v>3072.33</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O65" s="12">
         <v>2374.9119008469584</v>
@@ -5780,7 +5777,7 @@
     </row>
     <row r="66" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="11">
         <v>78.829040190372609</v>
@@ -5807,7 +5804,7 @@
         <v>164.83</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O66" s="12">
         <v>0</v>
@@ -5836,7 +5833,7 @@
     </row>
     <row r="67" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="11">
         <v>144.39459201818704</v>
@@ -5863,7 +5860,7 @@
         <v>98</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O67" s="12">
         <v>0</v>
@@ -5892,7 +5889,7 @@
     </row>
     <row r="68" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="11">
         <v>228.14459069519117</v>
@@ -5919,7 +5916,7 @@
         <v>78.540000000000006</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O68" s="12">
         <v>60.260870132923124</v>
@@ -5943,12 +5940,12 @@
         <v>4.3258199999999993</v>
       </c>
       <c r="V68" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" s="11">
         <v>594.47620640827904</v>
@@ -5975,7 +5972,7 @@
         <v>664.87</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
@@ -5986,7 +5983,7 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V69" s="11">
         <v>1.0629125874240002</v>
@@ -6010,12 +6007,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
